--- a/eznlp/utils/transition.xlsx
+++ b/eznlp/utils/transition.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BIO1" sheetId="5" r:id="rId1"/>
     <sheet name="BIO2" sheetId="1" r:id="rId2"/>
     <sheet name="BIOES" sheetId="4" r:id="rId3"/>
     <sheet name="OntoNotes" sheetId="7" r:id="rId4"/>
+    <sheet name="zh-wwm" sheetId="8" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'zh-wwm'!$A$1:$E$50</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="49">
   <si>
     <t>from_tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +130,79 @@
   </si>
   <si>
     <t>(*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_of_chunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_of_chunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##ETC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>##EN</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>##ETC</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,9 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -830,9 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1236,9 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2250,9 +2321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2555,4 +2624,874 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="10.6328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/eznlp/utils/transition.xlsx
+++ b/eznlp/utils/transition.xlsx
@@ -11,17 +11,17 @@
     <sheet name="BIO2" sheetId="1" r:id="rId2"/>
     <sheet name="BIOES" sheetId="4" r:id="rId3"/>
     <sheet name="OntoNotes" sheetId="7" r:id="rId4"/>
-    <sheet name="zh-wwm" sheetId="8" r:id="rId5"/>
+    <sheet name="wwm" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'zh-wwm'!$A$1:$E$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">wwm!$A$1:$E$57</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="62">
   <si>
     <t>from_tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,58 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##ZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##ZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##ZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##ZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##ZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##ZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##ETC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
@@ -2628,7 +2680,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2674,24 +2726,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>33</v>
@@ -2708,7 +2760,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>33</v>
@@ -2725,7 +2777,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>33</v>
@@ -2742,7 +2794,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>33</v>
@@ -2757,63 +2809,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="b">
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="b">
         <v>1</v>
@@ -2827,163 +2879,163 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="B16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7" t="b">
-        <v>0</v>
+      <c r="C18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C21" s="6" t="b">
         <v>1</v>
@@ -2995,46 +3047,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="b">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C24" s="6" t="b">
         <v>1</v>
@@ -3046,114 +3098,114 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7" t="b">
-        <v>1</v>
+    <row r="25" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C27" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4" t="b">
+      <c r="B30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C31" s="6" t="b">
         <v>1</v>
@@ -3167,61 +3219,61 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="C32" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C35" s="6" t="b">
         <v>1</v>
@@ -3233,46 +3285,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4" t="b">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C38" s="6" t="b">
         <v>1</v>
@@ -3286,10 +3338,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C39" s="6" t="b">
         <v>1</v>
@@ -3303,11 +3355,11 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="C40" s="6" t="b">
         <v>1</v>
       </c>
@@ -3318,86 +3370,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+    <row r="41" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4" t="b">
+      <c r="B42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C45" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="7" t="b">
         <v>0</v>
@@ -3405,16 +3457,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D46" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="7" t="b">
         <v>0</v>
@@ -3422,16 +3474,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C47" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7" t="b">
         <v>0</v>
@@ -3439,56 +3491,311 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="C61" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B64" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+      <c r="C64" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
